--- a/Assets/06.Table/TestHell.xlsx
+++ b/Assets/06.Table/TestHell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC77B371-AE34-4495-95A8-A0796CC924DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B0463-45E7-4246-9C76-91224EC4C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestHell" sheetId="1" r:id="rId1"/>
@@ -255,14 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +312,14 @@
   </si>
   <si>
     <t>20층당 증가폭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1085,11 +1085,11 @@
       </c>
       <c r="B5" s="21">
         <f>Balance!F12</f>
-        <v>2.2000000000000002E+93</v>
+        <v>2.0000000000000001E+93</v>
       </c>
       <c r="C5" s="20" t="str">
         <f>VLOOKUP(B5,Balance!F:G,2,FALSE)</f>
-        <v>22라</v>
+        <v>20라</v>
       </c>
       <c r="D5" s="24">
         <v>43</v>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="B6" s="21">
         <f>Balance!F13</f>
-        <v>1.3000000000000001E+94</v>
+        <v>1.2000000000000001E+94</v>
       </c>
       <c r="C6" s="20" t="str">
         <f>VLOOKUP(B6,Balance!F:G,2,FALSE)</f>
-        <v>130라</v>
+        <v>120라</v>
       </c>
       <c r="D6" s="24">
         <v>43</v>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="B7" s="21">
         <f>Balance!F14</f>
-        <v>7.7799999999999998E+94</v>
+        <v>7.7000000000000002E+94</v>
       </c>
       <c r="C7" s="20" t="str">
         <f>VLOOKUP(B7,Balance!F:G,2,FALSE)</f>
-        <v>778라</v>
+        <v>770라</v>
       </c>
       <c r="D7" s="24">
         <v>43</v>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B8" s="21">
         <f>Balance!F15</f>
-        <v>4.6660000000000003E+95</v>
+        <v>4.5999999999999999E+95</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>VLOOKUP(B8,Balance!F:G,2,FALSE)</f>
-        <v>4666라</v>
+        <v>4600라</v>
       </c>
       <c r="D8" s="24">
         <v>43</v>
@@ -1220,11 +1220,11 @@
       </c>
       <c r="B10" s="21">
         <f>Balance!F17</f>
-        <v>1.7E+97</v>
+        <v>1.0000000000000001E+97</v>
       </c>
       <c r="C10" s="20" t="str">
         <f>VLOOKUP(B10,Balance!F:G,2,FALSE)</f>
-        <v>17가</v>
+        <v>10가</v>
       </c>
       <c r="D10" s="24">
         <v>43</v>
@@ -1247,11 +1247,11 @@
       </c>
       <c r="B11" s="21">
         <f>Balance!F18</f>
-        <v>1.01E+98</v>
+        <v>1E+98</v>
       </c>
       <c r="C11" s="20" t="str">
         <f>VLOOKUP(B11,Balance!F:G,2,FALSE)</f>
-        <v>101가</v>
+        <v>100가</v>
       </c>
       <c r="D11" s="24">
         <v>43</v>
@@ -1274,11 +1274,11 @@
       </c>
       <c r="B12" s="21">
         <f>Balance!F19</f>
-        <v>6.05E+98</v>
+        <v>6.0000000000000003E+98</v>
       </c>
       <c r="C12" s="20" t="str">
         <f>VLOOKUP(B12,Balance!F:G,2,FALSE)</f>
-        <v>605가</v>
+        <v>600가</v>
       </c>
       <c r="D12" s="24">
         <v>43</v>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B13" s="21">
         <f>Balance!F20</f>
-        <v>3.6290000000000001E+99</v>
+        <v>3.6000000000000002E+99</v>
       </c>
       <c r="C13" s="20" t="str">
         <f>VLOOKUP(B13,Balance!F:G,2,FALSE)</f>
-        <v>3629가</v>
+        <v>3600가</v>
       </c>
       <c r="D13" s="24">
         <v>43</v>
@@ -1355,11 +1355,11 @@
       </c>
       <c r="B15" s="21">
         <f>Balance!F22</f>
-        <v>1.3999999999999999E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>VLOOKUP(B15,Balance!F:G,2,FALSE)</f>
-        <v>14언</v>
+        <v>10언</v>
       </c>
       <c r="D15" s="24">
         <v>43</v>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="B16" s="21">
         <f>Balance!F23</f>
-        <v>7.8999999999999998E+101</v>
+        <v>7.0000000000000005E+101</v>
       </c>
       <c r="C16" s="20" t="str">
         <f>VLOOKUP(B16,Balance!F:G,2,FALSE)</f>
-        <v>79언</v>
+        <v>70언</v>
       </c>
       <c r="D16" s="24">
         <v>43</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="B17" s="21">
         <f>Balance!F24</f>
-        <v>4.7099999999999996E+102</v>
+        <v>4.7000000000000003E+102</v>
       </c>
       <c r="C17" s="20" t="str">
         <f>VLOOKUP(B17,Balance!F:G,2,FALSE)</f>
-        <v>471언</v>
+        <v>470언</v>
       </c>
       <c r="D17" s="24">
         <v>43</v>
@@ -1436,11 +1436,11 @@
       </c>
       <c r="B18" s="21">
         <f>Balance!F25</f>
-        <v>2.8219999999999998E+103</v>
+        <v>2.8000000000000001E+103</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>VLOOKUP(B18,Balance!F:G,2,FALSE)</f>
-        <v>2822언</v>
+        <v>2800언</v>
       </c>
       <c r="D18" s="24">
         <v>43</v>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="B20" s="21">
         <f>Balance!F27</f>
-        <v>1.1E+105</v>
+        <v>9.9999999999999994E+104</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>VLOOKUP(B20,Balance!F:G,2,FALSE)</f>
-        <v>11승</v>
+        <v>10승</v>
       </c>
       <c r="D20" s="24">
         <v>43</v>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B21" s="21">
         <f>Balance!F28</f>
-        <v>6.0999999999999996E+105</v>
+        <v>6.0000000000000001E+105</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>VLOOKUP(B21,Balance!F:G,2,FALSE)</f>
-        <v>61승</v>
+        <v>60승</v>
       </c>
       <c r="D21" s="24">
         <v>43</v>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B22" s="21">
         <f>Balance!F29</f>
-        <v>3.6600000000000002E+106</v>
+        <v>3.6000000000000001E+106</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>VLOOKUP(B22,Balance!F:G,2,FALSE)</f>
-        <v>366승</v>
+        <v>360승</v>
       </c>
       <c r="D22" s="24">
         <v>43</v>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="B23" s="21">
         <f>Balance!F30</f>
-        <v>2.1940000000000002E+107</v>
+        <v>2.1E+107</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>VLOOKUP(B23,Balance!F:G,2,FALSE)</f>
-        <v>2194승</v>
+        <v>2100승</v>
       </c>
       <c r="D23" s="24">
         <v>43</v>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B26" s="21">
         <f>Balance!F33</f>
-        <v>4.8000000000000006E+109</v>
+        <v>3.9999999999999999E+109</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>VLOOKUP(B26,Balance!F:G,2,FALSE)</f>
-        <v>48마</v>
+        <v>40마</v>
       </c>
       <c r="D26" s="24">
         <v>43</v>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="B27" s="21">
         <f>Balance!F34</f>
-        <v>2.8500000000000001E+110</v>
+        <v>2.8000000000000002E+110</v>
       </c>
       <c r="C27" s="20" t="str">
         <f>VLOOKUP(B27,Balance!F:G,2,FALSE)</f>
-        <v>285마</v>
+        <v>280마</v>
       </c>
       <c r="D27" s="24">
         <v>43</v>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="B28" s="21">
         <f>Balance!F35</f>
-        <v>1.707E+111</v>
+        <v>1.7000000000000001E+111</v>
       </c>
       <c r="C28" s="20" t="str">
         <f>VLOOKUP(B28,Balance!F:G,2,FALSE)</f>
-        <v>1707마</v>
+        <v>1700마</v>
       </c>
       <c r="D28" s="24">
         <v>43</v>
@@ -1787,11 +1787,11 @@
       </c>
       <c r="B31" s="21">
         <f>Balance!F38</f>
-        <v>3.6999999999999998E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>VLOOKUP(B31,Balance!F:G,2,FALSE)</f>
-        <v>37살</v>
+        <v>30살</v>
       </c>
       <c r="D31" s="24">
         <v>43</v>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B32" s="21">
         <f>Balance!F39</f>
-        <v>2.2199999999999999E+114</v>
+        <v>2.1999999999999998E+114</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>VLOOKUP(B32,Balance!F:G,2,FALSE)</f>
-        <v>222살</v>
+        <v>220살</v>
       </c>
       <c r="D32" s="24">
         <v>43</v>
@@ -1841,11 +1841,11 @@
       </c>
       <c r="B33" s="21">
         <f>Balance!F40</f>
-        <v>1.3269999999999999E+115</v>
+        <v>1.2999999999999998E+115</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>VLOOKUP(B33,Balance!F:G,2,FALSE)</f>
-        <v>1327살</v>
+        <v>1300살</v>
       </c>
       <c r="D33" s="24">
         <v>43</v>
@@ -1860,6 +1860,168 @@
       <c r="G33" s="20">
         <f>VLOOKUP(B33,Balance!F:L,7,FALSE)</f>
         <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26">
+        <v>32</v>
+      </c>
+      <c r="B34" s="21">
+        <f>Balance!F41</f>
+        <v>7.8999999999999997E+115</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>VLOOKUP(B34,Balance!F:G,2,FALSE)</f>
+        <v>7900살</v>
+      </c>
+      <c r="D34" s="24">
+        <v>43</v>
+      </c>
+      <c r="E34" s="20">
+        <f>VLOOKUP(B34,Balance!F:K,6,FALSE)</f>
+        <v>1.5479999999999998</v>
+      </c>
+      <c r="F34" s="24">
+        <v>43</v>
+      </c>
+      <c r="G34" s="20">
+        <f>VLOOKUP(B34,Balance!F:L,7,FALSE)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26">
+        <v>33</v>
+      </c>
+      <c r="B35" s="21">
+        <f>Balance!F42</f>
+        <v>5.0000000000000003E+116</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>VLOOKUP(B35,Balance!F:G,2,FALSE)</f>
+        <v>5섬</v>
+      </c>
+      <c r="D35" s="24">
+        <v>43</v>
+      </c>
+      <c r="E35" s="20">
+        <f>VLOOKUP(B35,Balance!F:K,6,FALSE)</f>
+        <v>1.569</v>
+      </c>
+      <c r="F35" s="24">
+        <v>43</v>
+      </c>
+      <c r="G35" s="20">
+        <f>VLOOKUP(B35,Balance!F:L,7,FALSE)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="26">
+        <v>34</v>
+      </c>
+      <c r="B36" s="21">
+        <f>Balance!F43</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="C36" s="20" t="str">
+        <f>VLOOKUP(B36,Balance!F:G,2,FALSE)</f>
+        <v>20섬</v>
+      </c>
+      <c r="D36" s="24">
+        <v>43</v>
+      </c>
+      <c r="E36" s="20">
+        <f>VLOOKUP(B36,Balance!F:K,6,FALSE)</f>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="F36" s="24">
+        <v>43</v>
+      </c>
+      <c r="G36" s="20">
+        <f>VLOOKUP(B36,Balance!F:L,7,FALSE)</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="26">
+        <v>35</v>
+      </c>
+      <c r="B37" s="21">
+        <f>Balance!F44</f>
+        <v>1.6999999999999999E+118</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f>VLOOKUP(B37,Balance!F:G,2,FALSE)</f>
+        <v>170섬</v>
+      </c>
+      <c r="D37" s="24">
+        <v>43</v>
+      </c>
+      <c r="E37" s="20">
+        <f>VLOOKUP(B37,Balance!F:K,6,FALSE)</f>
+        <v>1.611</v>
+      </c>
+      <c r="F37" s="24">
+        <v>43</v>
+      </c>
+      <c r="G37" s="20">
+        <f>VLOOKUP(B37,Balance!F:L,7,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="26">
+        <v>36</v>
+      </c>
+      <c r="B38" s="21">
+        <f>Balance!F45</f>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f>VLOOKUP(B38,Balance!F:G,2,FALSE)</f>
+        <v>1000섬</v>
+      </c>
+      <c r="D38" s="24">
+        <v>43</v>
+      </c>
+      <c r="E38" s="20">
+        <f>VLOOKUP(B38,Balance!F:K,6,FALSE)</f>
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="F38" s="24">
+        <v>43</v>
+      </c>
+      <c r="G38" s="20">
+        <f>VLOOKUP(B38,Balance!F:L,7,FALSE)</f>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="26">
+        <v>37</v>
+      </c>
+      <c r="B39" s="21">
+        <f>Balance!F46</f>
+        <v>6.1E+119</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f>VLOOKUP(B39,Balance!F:G,2,FALSE)</f>
+        <v>6100섬</v>
+      </c>
+      <c r="D39" s="24">
+        <v>43</v>
+      </c>
+      <c r="E39" s="20">
+        <f>VLOOKUP(B39,Balance!F:K,6,FALSE)</f>
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="F39" s="24">
+        <v>43</v>
+      </c>
+      <c r="G39" s="20">
+        <f>VLOOKUP(B39,Balance!F:L,7,FALSE)</f>
+        <v>10.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1873,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3E33BD-992C-4217-90F6-801DF4A35CFF}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1897,7 +2059,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
@@ -1946,7 +2108,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -1969,10 +2131,10 @@
         <v>16</v>
       </c>
       <c r="K7" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>16</v>
@@ -2026,11 +2188,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="17">
-        <f>ROUNDUP(H9,0)*J9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))*J9</f>
         <v>9.999999999999999E+90</v>
       </c>
       <c r="G9" s="17" t="str">
-        <f>ROUNDUP(H9,0)&amp;I9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))&amp;I9</f>
         <v>1000갈</v>
       </c>
       <c r="H9" s="17">
@@ -2077,11 +2239,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="17">
-        <f t="shared" ref="F10:F66" si="3">ROUNDUP(H10,0)*J10</f>
+        <f t="shared" ref="F10:F66" si="3">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))*J10</f>
         <v>6.0000000000000001E+91</v>
       </c>
       <c r="G10" s="17" t="str">
-        <f t="shared" ref="G10:G66" si="4">ROUNDUP(H10,0)&amp;I10</f>
+        <f t="shared" ref="G10:G66" si="4">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))&amp;I10</f>
         <v>6000갈</v>
       </c>
       <c r="H10" s="17">
@@ -2169,7 +2331,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -2178,11 +2340,11 @@
       </c>
       <c r="F12" s="17">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002E+93</v>
+        <v>2.0000000000000001E+93</v>
       </c>
       <c r="G12" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>22라</v>
+        <v>20라</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
@@ -2232,11 +2394,11 @@
       </c>
       <c r="F13" s="17">
         <f t="shared" si="3"/>
-        <v>1.3000000000000001E+94</v>
+        <v>1.2000000000000001E+94</v>
       </c>
       <c r="G13" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>130라</v>
+        <v>120라</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="6"/>
@@ -2275,7 +2437,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="19">
         <v>1.3</v>
@@ -2286,11 +2448,11 @@
       </c>
       <c r="F14" s="17">
         <f t="shared" si="3"/>
-        <v>7.7799999999999998E+94</v>
+        <v>7.7000000000000002E+94</v>
       </c>
       <c r="G14" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>778라</v>
+        <v>770라</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="6"/>
@@ -2334,11 +2496,11 @@
       </c>
       <c r="F15" s="17">
         <f t="shared" si="3"/>
-        <v>4.6660000000000003E+95</v>
+        <v>4.5999999999999999E+95</v>
       </c>
       <c r="G15" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>4666라</v>
+        <v>4600라</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="6"/>
@@ -2377,7 +2539,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2440,11 +2602,11 @@
       </c>
       <c r="F17" s="17">
         <f t="shared" si="3"/>
-        <v>1.7E+97</v>
+        <v>1.0000000000000001E+97</v>
       </c>
       <c r="G17" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>17가</v>
+        <v>10가</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
@@ -2483,7 +2645,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" s="19">
         <v>0.1</v>
@@ -2494,11 +2656,11 @@
       </c>
       <c r="F18" s="17">
         <f t="shared" si="3"/>
-        <v>1.01E+98</v>
+        <v>1E+98</v>
       </c>
       <c r="G18" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>101가</v>
+        <v>100가</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
@@ -2537,7 +2699,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" s="19">
         <v>0.3</v>
@@ -2548,11 +2710,11 @@
       </c>
       <c r="F19" s="17">
         <f t="shared" si="3"/>
-        <v>6.05E+98</v>
+        <v>6.0000000000000003E+98</v>
       </c>
       <c r="G19" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>605가</v>
+        <v>600가</v>
       </c>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
@@ -2591,7 +2753,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B20" s="19">
         <v>0.5</v>
@@ -2602,11 +2764,11 @@
       </c>
       <c r="F20" s="17">
         <f t="shared" si="3"/>
-        <v>3.6290000000000001E+99</v>
+        <v>3.6000000000000002E+99</v>
       </c>
       <c r="G20" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3629가</v>
+        <v>3600가</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="6"/>
@@ -2645,7 +2807,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
@@ -2704,11 +2866,11 @@
       </c>
       <c r="F22" s="17">
         <f t="shared" si="3"/>
-        <v>1.3999999999999999E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="G22" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>14언</v>
+        <v>10언</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
@@ -2751,11 +2913,11 @@
       </c>
       <c r="F23" s="17">
         <f t="shared" si="3"/>
-        <v>7.8999999999999998E+101</v>
+        <v>7.0000000000000005E+101</v>
       </c>
       <c r="G23" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>79언</v>
+        <v>70언</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="6"/>
@@ -2798,11 +2960,11 @@
       </c>
       <c r="F24" s="17">
         <f t="shared" si="3"/>
-        <v>4.7099999999999996E+102</v>
+        <v>4.7000000000000003E+102</v>
       </c>
       <c r="G24" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>471언</v>
+        <v>470언</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="6"/>
@@ -2845,11 +3007,11 @@
       </c>
       <c r="F25" s="17">
         <f t="shared" si="3"/>
-        <v>2.8219999999999998E+103</v>
+        <v>2.8000000000000001E+103</v>
       </c>
       <c r="G25" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2822언</v>
+        <v>2800언</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="6"/>
@@ -2939,11 +3101,11 @@
       </c>
       <c r="F27" s="17">
         <f t="shared" si="3"/>
-        <v>1.1E+105</v>
+        <v>9.9999999999999994E+104</v>
       </c>
       <c r="G27" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>11승</v>
+        <v>10승</v>
       </c>
       <c r="H27" s="17">
         <f t="shared" si="6"/>
@@ -2986,11 +3148,11 @@
       </c>
       <c r="F28" s="17">
         <f t="shared" si="3"/>
-        <v>6.0999999999999996E+105</v>
+        <v>6.0000000000000001E+105</v>
       </c>
       <c r="G28" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>61승</v>
+        <v>60승</v>
       </c>
       <c r="H28" s="17">
         <f t="shared" si="6"/>
@@ -3033,11 +3195,11 @@
       </c>
       <c r="F29" s="17">
         <f t="shared" si="3"/>
-        <v>3.6600000000000002E+106</v>
+        <v>3.6000000000000001E+106</v>
       </c>
       <c r="G29" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>366승</v>
+        <v>360승</v>
       </c>
       <c r="H29" s="17">
         <f t="shared" si="6"/>
@@ -3080,11 +3242,11 @@
       </c>
       <c r="F30" s="17">
         <f t="shared" si="3"/>
-        <v>2.1940000000000002E+107</v>
+        <v>2.1E+107</v>
       </c>
       <c r="G30" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2194승</v>
+        <v>2100승</v>
       </c>
       <c r="H30" s="17">
         <f t="shared" si="6"/>
@@ -3222,11 +3384,11 @@
       </c>
       <c r="F33" s="17">
         <f t="shared" si="3"/>
-        <v>4.8000000000000006E+109</v>
+        <v>3.9999999999999999E+109</v>
       </c>
       <c r="G33" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>48마</v>
+        <v>40마</v>
       </c>
       <c r="H33" s="17">
         <f t="shared" si="6"/>
@@ -3279,11 +3441,11 @@
       </c>
       <c r="F34" s="17">
         <f t="shared" si="3"/>
-        <v>2.8500000000000001E+110</v>
+        <v>2.8000000000000002E+110</v>
       </c>
       <c r="G34" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>285마</v>
+        <v>280마</v>
       </c>
       <c r="H34" s="17">
         <f t="shared" si="6"/>
@@ -3336,11 +3498,11 @@
       </c>
       <c r="F35" s="17">
         <f t="shared" si="3"/>
-        <v>1.707E+111</v>
+        <v>1.7000000000000001E+111</v>
       </c>
       <c r="G35" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1707마</v>
+        <v>1700마</v>
       </c>
       <c r="H35" s="17">
         <f t="shared" si="6"/>
@@ -3364,7 +3526,7 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O35" s="16">
         <v>112</v>
@@ -3421,7 +3583,7 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O36" s="16">
         <v>116</v>
@@ -3478,7 +3640,7 @@
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="16" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O37" s="16">
         <v>120</v>
@@ -3507,11 +3669,11 @@
       </c>
       <c r="F38" s="17">
         <f t="shared" si="3"/>
-        <v>3.6999999999999998E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="G38" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>37살</v>
+        <v>30살</v>
       </c>
       <c r="H38" s="17">
         <f t="shared" si="6"/>
@@ -3535,7 +3697,7 @@
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="O38" s="16">
         <v>124</v>
@@ -3564,11 +3726,11 @@
       </c>
       <c r="F39" s="17">
         <f t="shared" si="3"/>
-        <v>2.2199999999999999E+114</v>
+        <v>2.1999999999999998E+114</v>
       </c>
       <c r="G39" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>222살</v>
+        <v>220살</v>
       </c>
       <c r="H39" s="17">
         <f t="shared" si="6"/>
@@ -3591,7 +3753,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O39" s="16">
         <v>128</v>
@@ -3611,11 +3773,11 @@
       </c>
       <c r="F40" s="17">
         <f t="shared" si="3"/>
-        <v>1.3269999999999999E+115</v>
+        <v>1.2999999999999998E+115</v>
       </c>
       <c r="G40" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1327살</v>
+        <v>1300살</v>
       </c>
       <c r="H40" s="17">
         <f t="shared" si="6"/>
@@ -3638,7 +3800,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O40" s="16">
         <v>132</v>
@@ -3658,11 +3820,11 @@
       </c>
       <c r="F41" s="17">
         <f t="shared" si="3"/>
-        <v>7.960999999999999E+115</v>
+        <v>7.8999999999999997E+115</v>
       </c>
       <c r="G41" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>7961살</v>
+        <v>7900살</v>
       </c>
       <c r="H41" s="17">
         <f t="shared" si="6"/>
@@ -3724,11 +3886,11 @@
       </c>
       <c r="F43" s="17">
         <f t="shared" si="3"/>
-        <v>2.9000000000000003E+117</v>
+        <v>2.0000000000000001E+117</v>
       </c>
       <c r="G43" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>29섬</v>
+        <v>20섬</v>
       </c>
       <c r="H43" s="17">
         <f t="shared" si="6"/>
@@ -3757,11 +3919,11 @@
       </c>
       <c r="F44" s="17">
         <f t="shared" si="3"/>
-        <v>1.72E+118</v>
+        <v>1.6999999999999999E+118</v>
       </c>
       <c r="G44" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>172섬</v>
+        <v>170섬</v>
       </c>
       <c r="H44" s="17">
         <f t="shared" si="6"/>
@@ -3790,11 +3952,11 @@
       </c>
       <c r="F45" s="17">
         <f t="shared" si="3"/>
-        <v>1.032E+119</v>
+        <v>9.9999999999999994E+118</v>
       </c>
       <c r="G45" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>1032섬</v>
+        <v>1000섬</v>
       </c>
       <c r="H45" s="17">
         <f t="shared" si="6"/>
@@ -3823,11 +3985,11 @@
       </c>
       <c r="F46" s="17">
         <f t="shared" si="3"/>
-        <v>6.1900000000000004E+119</v>
+        <v>6.1E+119</v>
       </c>
       <c r="G46" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>6190섬</v>
+        <v>6100섬</v>
       </c>
       <c r="H46" s="17">
         <f t="shared" si="6"/>
@@ -3860,7 +4022,7 @@
       </c>
       <c r="G47" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>4a</v>
+        <v>4찰</v>
       </c>
       <c r="H47" s="17">
         <f t="shared" si="6"/>
@@ -3868,7 +4030,7 @@
       </c>
       <c r="I47" s="16" t="str" cm="1">
         <f t="array" ref="I47">IF(AND(H46&gt;100,H47&lt;100),INDEX(N:N,MATCH(I46,N:N,0)+1,0),I46)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J47" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3889,11 +4051,11 @@
       </c>
       <c r="F48" s="17">
         <f t="shared" si="3"/>
-        <v>2.2999999999999999E+121</v>
+        <v>1.9999999999999998E+121</v>
       </c>
       <c r="G48" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>23a</v>
+        <v>20찰</v>
       </c>
       <c r="H48" s="17">
         <f t="shared" si="6"/>
@@ -3901,7 +4063,7 @@
       </c>
       <c r="I48" s="16" t="str" cm="1">
         <f t="array" ref="I48">IF(AND(H47&gt;100,H48&lt;100),INDEX(N:N,MATCH(I47,N:N,0)+1,0),I47)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J48" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3922,11 +4084,11 @@
       </c>
       <c r="F49" s="17">
         <f t="shared" si="3"/>
-        <v>1.34E+122</v>
+        <v>1.3E+122</v>
       </c>
       <c r="G49" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>134a</v>
+        <v>130찰</v>
       </c>
       <c r="H49" s="17">
         <f t="shared" si="6"/>
@@ -3934,7 +4096,7 @@
       </c>
       <c r="I49" s="16" t="str" cm="1">
         <f t="array" ref="I49">IF(AND(H48&gt;100,H49&lt;100),INDEX(N:N,MATCH(I48,N:N,0)+1,0),I48)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J49" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3955,11 +4117,11 @@
       </c>
       <c r="F50" s="17">
         <f t="shared" si="3"/>
-        <v>8.0299999999999999E+122</v>
+        <v>8.0000000000000001E+122</v>
       </c>
       <c r="G50" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>803a</v>
+        <v>800찰</v>
       </c>
       <c r="H50" s="17">
         <f t="shared" si="6"/>
@@ -3967,7 +4129,7 @@
       </c>
       <c r="I50" s="16" t="str" cm="1">
         <f t="array" ref="I50">IF(AND(H49&gt;100,H50&lt;100),INDEX(N:N,MATCH(I49,N:N,0)+1,0),I49)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J50" s="16" t="str">
         <f t="shared" si="11"/>
@@ -3988,11 +4150,11 @@
       </c>
       <c r="F51" s="17">
         <f t="shared" si="3"/>
-        <v>4.814E+123</v>
+        <v>4.7999999999999998E+123</v>
       </c>
       <c r="G51" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>4814a</v>
+        <v>4800찰</v>
       </c>
       <c r="H51" s="17">
         <f t="shared" si="6"/>
@@ -4000,7 +4162,7 @@
       </c>
       <c r="I51" s="16" t="str" cm="1">
         <f t="array" ref="I51">IF(AND(H50&gt;100,H51&lt;100),INDEX(N:N,MATCH(I50,N:N,0)+1,0),I50)</f>
-        <v>a</v>
+        <v>찰</v>
       </c>
       <c r="J51" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4025,7 +4187,7 @@
       </c>
       <c r="G52" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3b</v>
+        <v>3교</v>
       </c>
       <c r="H52" s="17">
         <f t="shared" si="6"/>
@@ -4033,7 +4195,7 @@
       </c>
       <c r="I52" s="16" t="str" cm="1">
         <f t="array" ref="I52">IF(AND(H51&gt;100,H52&lt;100),INDEX(N:N,MATCH(I51,N:N,0)+1,0),I51)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J52" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4054,11 +4216,11 @@
       </c>
       <c r="F53" s="17">
         <f t="shared" si="3"/>
-        <v>1.7999999999999998E+125</v>
+        <v>9.9999999999999992E+124</v>
       </c>
       <c r="G53" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>18b</v>
+        <v>10교</v>
       </c>
       <c r="H53" s="17">
         <f t="shared" si="6"/>
@@ -4066,7 +4228,7 @@
       </c>
       <c r="I53" s="16" t="str" cm="1">
         <f t="array" ref="I53">IF(AND(H52&gt;100,H53&lt;100),INDEX(N:N,MATCH(I52,N:N,0)+1,0),I52)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J53" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4087,11 +4249,11 @@
       </c>
       <c r="F54" s="17">
         <f t="shared" si="3"/>
-        <v>1.04E+126</v>
+        <v>9.9999999999999992E+125</v>
       </c>
       <c r="G54" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>104b</v>
+        <v>100교</v>
       </c>
       <c r="H54" s="17">
         <f t="shared" si="6"/>
@@ -4099,7 +4261,7 @@
       </c>
       <c r="I54" s="16" t="str" cm="1">
         <f t="array" ref="I54">IF(AND(H53&gt;100,H54&lt;100),INDEX(N:N,MATCH(I53,N:N,0)+1,0),I53)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J54" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4120,11 +4282,11 @@
       </c>
       <c r="F55" s="17">
         <f t="shared" si="3"/>
-        <v>6.2399999999999992E+126</v>
+        <v>6.2E+126</v>
       </c>
       <c r="G55" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>624b</v>
+        <v>620교</v>
       </c>
       <c r="H55" s="17">
         <f t="shared" si="6"/>
@@ -4132,7 +4294,7 @@
       </c>
       <c r="I55" s="16" t="str" cm="1">
         <f t="array" ref="I55">IF(AND(H54&gt;100,H55&lt;100),INDEX(N:N,MATCH(I54,N:N,0)+1,0),I54)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J55" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4153,11 +4315,11 @@
       </c>
       <c r="F56" s="17">
         <f t="shared" si="3"/>
-        <v>3.7429999999999997E+127</v>
+        <v>3.6999999999999998E+127</v>
       </c>
       <c r="G56" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3743b</v>
+        <v>3700교</v>
       </c>
       <c r="H56" s="17">
         <f t="shared" si="6"/>
@@ -4165,7 +4327,7 @@
       </c>
       <c r="I56" s="16" t="str" cm="1">
         <f t="array" ref="I56">IF(AND(H55&gt;100,H56&lt;100),INDEX(N:N,MATCH(I55,N:N,0)+1,0),I55)</f>
-        <v>b</v>
+        <v>교</v>
       </c>
       <c r="J56" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4219,11 +4381,11 @@
       </c>
       <c r="F58" s="17">
         <f t="shared" si="3"/>
-        <v>1.4000000000000002E+129</v>
+        <v>1E+129</v>
       </c>
       <c r="G58" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>14c</v>
+        <v>10c</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="6"/>
@@ -4252,11 +4414,11 @@
       </c>
       <c r="F59" s="17">
         <f t="shared" si="3"/>
-        <v>8.1000000000000003E+129</v>
+        <v>8E+129</v>
       </c>
       <c r="G59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>81c</v>
+        <v>80c</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="6"/>
@@ -4285,11 +4447,11 @@
       </c>
       <c r="F60" s="17">
         <f t="shared" si="3"/>
-        <v>4.8599999999999999E+130</v>
+        <v>4.8000000000000005E+130</v>
       </c>
       <c r="G60" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>486c</v>
+        <v>480c</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="6"/>
@@ -4318,11 +4480,11 @@
       </c>
       <c r="F61" s="17">
         <f t="shared" si="3"/>
-        <v>2.911E+131</v>
+        <v>2.9000000000000001E+131</v>
       </c>
       <c r="G61" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2911c</v>
+        <v>2900c</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="6"/>
@@ -4384,11 +4546,11 @@
       </c>
       <c r="F63" s="17">
         <f t="shared" si="3"/>
-        <v>1.1E+133</v>
+        <v>1E+133</v>
       </c>
       <c r="G63" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>11d</v>
+        <v>10d</v>
       </c>
       <c r="H63" s="17">
         <f t="shared" si="6"/>
@@ -4417,11 +4579,11 @@
       </c>
       <c r="F64" s="17">
         <f t="shared" si="3"/>
-        <v>6.2999999999999995E+133</v>
+        <v>6.0000000000000001E+133</v>
       </c>
       <c r="G64" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>63d</v>
+        <v>60d</v>
       </c>
       <c r="H64" s="17">
         <f t="shared" si="6"/>
@@ -4450,11 +4612,11 @@
       </c>
       <c r="F65" s="17">
         <f t="shared" si="3"/>
-        <v>3.7799999999999997E+134</v>
+        <v>3.7000000000000001E+134</v>
       </c>
       <c r="G65" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>378d</v>
+        <v>370d</v>
       </c>
       <c r="H65" s="17">
         <f t="shared" si="6"/>
@@ -4483,11 +4645,11 @@
       </c>
       <c r="F66" s="17">
         <f t="shared" si="3"/>
-        <v>2.2639999999999999E+135</v>
+        <v>2.1999999999999999E+135</v>
       </c>
       <c r="G66" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2264d</v>
+        <v>2200d</v>
       </c>
       <c r="H66" s="17">
         <f t="shared" si="6"/>

--- a/Assets/06.Table/TestHell.xlsx
+++ b/Assets/06.Table/TestHell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B0463-45E7-4246-9C76-91224EC4C49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A4852-B7B0-4620-900D-41D22C8E8E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +316,10 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2024,6 +2024,303 @@
         <v>10.199999999999999</v>
       </c>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="26">
+        <v>38</v>
+      </c>
+      <c r="B40" s="21">
+        <f>Balance!F47</f>
+        <v>3.9999999999999999E+120</v>
+      </c>
+      <c r="C40" s="20" t="str">
+        <f>VLOOKUP(B40,Balance!F:G,2,FALSE)</f>
+        <v>4찰</v>
+      </c>
+      <c r="D40" s="24">
+        <v>43</v>
+      </c>
+      <c r="E40" s="20">
+        <f>VLOOKUP(B40,Balance!F:K,6,FALSE)</f>
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="F40" s="24">
+        <v>43</v>
+      </c>
+      <c r="G40" s="20">
+        <f>VLOOKUP(B40,Balance!F:L,7,FALSE)</f>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="26">
+        <v>39</v>
+      </c>
+      <c r="B41" s="21">
+        <f>Balance!F48</f>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f>VLOOKUP(B41,Balance!F:G,2,FALSE)</f>
+        <v>20찰</v>
+      </c>
+      <c r="D41" s="24">
+        <v>43</v>
+      </c>
+      <c r="E41" s="20">
+        <f>VLOOKUP(B41,Balance!F:K,6,FALSE)</f>
+        <v>1.698</v>
+      </c>
+      <c r="F41" s="24">
+        <v>43</v>
+      </c>
+      <c r="G41" s="20">
+        <f>VLOOKUP(B41,Balance!F:L,7,FALSE)</f>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="26">
+        <v>40</v>
+      </c>
+      <c r="B42" s="21">
+        <f>Balance!F49</f>
+        <v>1.3E+122</v>
+      </c>
+      <c r="C42" s="20" t="str">
+        <f>VLOOKUP(B42,Balance!F:G,2,FALSE)</f>
+        <v>130찰</v>
+      </c>
+      <c r="D42" s="24">
+        <v>43</v>
+      </c>
+      <c r="E42" s="20">
+        <f>VLOOKUP(B42,Balance!F:K,6,FALSE)</f>
+        <v>1.7209999999999999</v>
+      </c>
+      <c r="F42" s="24">
+        <v>43</v>
+      </c>
+      <c r="G42" s="20">
+        <f>VLOOKUP(B42,Balance!F:L,7,FALSE)</f>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26">
+        <v>41</v>
+      </c>
+      <c r="B43" s="21">
+        <f>Balance!F50</f>
+        <v>8.0000000000000001E+122</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f>VLOOKUP(B43,Balance!F:G,2,FALSE)</f>
+        <v>800찰</v>
+      </c>
+      <c r="D43" s="24">
+        <v>43</v>
+      </c>
+      <c r="E43" s="20">
+        <f>VLOOKUP(B43,Balance!F:K,6,FALSE)</f>
+        <v>1.744</v>
+      </c>
+      <c r="F43" s="24">
+        <v>43</v>
+      </c>
+      <c r="G43" s="20">
+        <f>VLOOKUP(B43,Balance!F:L,7,FALSE)</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26">
+        <v>42</v>
+      </c>
+      <c r="B44" s="21">
+        <f>Balance!F51</f>
+        <v>4.7999999999999998E+123</v>
+      </c>
+      <c r="C44" s="20" t="str">
+        <f>VLOOKUP(B44,Balance!F:G,2,FALSE)</f>
+        <v>4800찰</v>
+      </c>
+      <c r="D44" s="24">
+        <v>43</v>
+      </c>
+      <c r="E44" s="20">
+        <f>VLOOKUP(B44,Balance!F:K,6,FALSE)</f>
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="F44" s="24">
+        <v>43</v>
+      </c>
+      <c r="G44" s="20">
+        <f>VLOOKUP(B44,Balance!F:L,7,FALSE)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26">
+        <v>43</v>
+      </c>
+      <c r="B45" s="21">
+        <f>Balance!F52</f>
+        <v>3E+124</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f>VLOOKUP(B45,Balance!F:G,2,FALSE)</f>
+        <v>3교</v>
+      </c>
+      <c r="D45" s="24">
+        <v>43</v>
+      </c>
+      <c r="E45" s="20">
+        <f>VLOOKUP(B45,Balance!F:K,6,FALSE)</f>
+        <v>1.7899999999999998</v>
+      </c>
+      <c r="F45" s="24">
+        <v>43</v>
+      </c>
+      <c r="G45" s="20">
+        <f>VLOOKUP(B45,Balance!F:L,7,FALSE)</f>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="26">
+        <v>44</v>
+      </c>
+      <c r="B46" s="21">
+        <f>Balance!F53</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f>VLOOKUP(B46,Balance!F:G,2,FALSE)</f>
+        <v>10교</v>
+      </c>
+      <c r="D46" s="24">
+        <v>43</v>
+      </c>
+      <c r="E46" s="20">
+        <f>VLOOKUP(B46,Balance!F:K,6,FALSE)</f>
+        <v>1.8139999999999998</v>
+      </c>
+      <c r="F46" s="24">
+        <v>43</v>
+      </c>
+      <c r="G46" s="20">
+        <f>VLOOKUP(B46,Balance!F:L,7,FALSE)</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="26">
+        <v>45</v>
+      </c>
+      <c r="B47" s="21">
+        <f>Balance!F54</f>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f>VLOOKUP(B47,Balance!F:G,2,FALSE)</f>
+        <v>100교</v>
+      </c>
+      <c r="D47" s="24">
+        <v>43</v>
+      </c>
+      <c r="E47" s="20">
+        <f>VLOOKUP(B47,Balance!F:K,6,FALSE)</f>
+        <v>1.8379999999999999</v>
+      </c>
+      <c r="F47" s="24">
+        <v>43</v>
+      </c>
+      <c r="G47" s="20">
+        <f>VLOOKUP(B47,Balance!F:L,7,FALSE)</f>
+        <v>13.100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="26">
+        <v>46</v>
+      </c>
+      <c r="B48" s="21">
+        <f>Balance!F55</f>
+        <v>6.2E+126</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f>VLOOKUP(B48,Balance!F:G,2,FALSE)</f>
+        <v>620교</v>
+      </c>
+      <c r="D48" s="24">
+        <v>43</v>
+      </c>
+      <c r="E48" s="20">
+        <f>VLOOKUP(B48,Balance!F:K,6,FALSE)</f>
+        <v>1.8619999999999999</v>
+      </c>
+      <c r="F48" s="24">
+        <v>43</v>
+      </c>
+      <c r="G48" s="20">
+        <f>VLOOKUP(B48,Balance!F:L,7,FALSE)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="26">
+        <v>47</v>
+      </c>
+      <c r="B49" s="21">
+        <f>Balance!F56</f>
+        <v>3.6999999999999998E+127</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f>VLOOKUP(B49,Balance!F:G,2,FALSE)</f>
+        <v>3700교</v>
+      </c>
+      <c r="D49" s="24">
+        <v>43</v>
+      </c>
+      <c r="E49" s="20">
+        <f>VLOOKUP(B49,Balance!F:K,6,FALSE)</f>
+        <v>1.8869999999999998</v>
+      </c>
+      <c r="F49" s="24">
+        <v>43</v>
+      </c>
+      <c r="G49" s="20">
+        <f>VLOOKUP(B49,Balance!F:L,7,FALSE)</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="26">
+        <v>48</v>
+      </c>
+      <c r="B50" s="21">
+        <f>Balance!F57</f>
+        <v>3.0000000000000002E+128</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f>VLOOKUP(B50,Balance!F:G,2,FALSE)</f>
+        <v>3위</v>
+      </c>
+      <c r="D50" s="24">
+        <v>43</v>
+      </c>
+      <c r="E50" s="20">
+        <f>VLOOKUP(B50,Balance!F:K,6,FALSE)</f>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="F50" s="24">
+        <v>43</v>
+      </c>
+      <c r="G50" s="20">
+        <f>VLOOKUP(B50,Balance!F:L,7,FALSE)</f>
+        <v>13.4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2035,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3E33BD-992C-4217-90F6-801DF4A35CFF}">
   <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2059,7 +2356,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="29"/>
       <c r="E1" s="2"/>
@@ -2108,7 +2405,7 @@
     </row>
     <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2131,10 +2428,10 @@
         <v>16</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="14" t="s">
         <v>16</v>
@@ -2331,7 +2628,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -2437,7 +2734,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="19">
         <v>1.3</v>
@@ -2539,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2645,7 +2942,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="19">
         <v>0.1</v>
@@ -2699,7 +2996,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="19">
         <v>0.3</v>
@@ -2753,7 +3050,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="19">
         <v>0.5</v>
@@ -2807,7 +3104,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="19">
         <v>1</v>
@@ -3526,7 +3823,7 @@
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O35" s="16">
         <v>112</v>
@@ -3583,7 +3880,7 @@
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O36" s="16">
         <v>116</v>
@@ -3640,7 +3937,7 @@
       </c>
       <c r="M37" s="11"/>
       <c r="N37" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" s="16">
         <v>120</v>
@@ -3697,7 +3994,7 @@
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O38" s="16">
         <v>124</v>
@@ -3753,7 +4050,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="O39" s="16">
         <v>128</v>
@@ -3800,7 +4097,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O40" s="16">
         <v>132</v>
@@ -4352,7 +4649,7 @@
       </c>
       <c r="G57" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>3c</v>
+        <v>3위</v>
       </c>
       <c r="H57" s="17">
         <f t="shared" si="6"/>
@@ -4360,7 +4657,7 @@
       </c>
       <c r="I57" s="16" t="str" cm="1">
         <f t="array" ref="I57">IF(AND(H56&gt;100,H57&lt;100),INDEX(N:N,MATCH(I56,N:N,0)+1,0),I56)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J57" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4385,7 +4682,7 @@
       </c>
       <c r="G58" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>10c</v>
+        <v>10위</v>
       </c>
       <c r="H58" s="17">
         <f t="shared" si="6"/>
@@ -4393,7 +4690,7 @@
       </c>
       <c r="I58" s="16" t="str" cm="1">
         <f t="array" ref="I58">IF(AND(H57&gt;100,H58&lt;100),INDEX(N:N,MATCH(I57,N:N,0)+1,0),I57)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J58" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4418,7 +4715,7 @@
       </c>
       <c r="G59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>80c</v>
+        <v>80위</v>
       </c>
       <c r="H59" s="17">
         <f t="shared" si="6"/>
@@ -4426,7 +4723,7 @@
       </c>
       <c r="I59" s="16" t="str" cm="1">
         <f t="array" ref="I59">IF(AND(H58&gt;100,H59&lt;100),INDEX(N:N,MATCH(I58,N:N,0)+1,0),I58)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J59" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4451,7 +4748,7 @@
       </c>
       <c r="G60" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>480c</v>
+        <v>480위</v>
       </c>
       <c r="H60" s="17">
         <f t="shared" si="6"/>
@@ -4459,7 +4756,7 @@
       </c>
       <c r="I60" s="16" t="str" cm="1">
         <f t="array" ref="I60">IF(AND(H59&gt;100,H60&lt;100),INDEX(N:N,MATCH(I59,N:N,0)+1,0),I59)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J60" s="16" t="str">
         <f t="shared" si="11"/>
@@ -4484,7 +4781,7 @@
       </c>
       <c r="G61" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>2900c</v>
+        <v>2900위</v>
       </c>
       <c r="H61" s="17">
         <f t="shared" si="6"/>
@@ -4492,7 +4789,7 @@
       </c>
       <c r="I61" s="16" t="str" cm="1">
         <f t="array" ref="I61">IF(AND(H60&gt;100,H61&lt;100),INDEX(N:N,MATCH(I60,N:N,0)+1,0),I60)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J61" s="16" t="str">
         <f t="shared" si="11"/>

--- a/Assets/06.Table/TestHell.xlsx
+++ b/Assets/06.Table/TestHell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A4852-B7B0-4620-900D-41D22C8E8E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482DFEA7-DE3F-4A3F-9447-577BEE273F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -958,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -2157,168 +2157,6 @@
       <c r="G44" s="20">
         <f>VLOOKUP(B44,Balance!F:L,7,FALSE)</f>
         <v>12.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="26">
-        <v>43</v>
-      </c>
-      <c r="B45" s="21">
-        <f>Balance!F52</f>
-        <v>3E+124</v>
-      </c>
-      <c r="C45" s="20" t="str">
-        <f>VLOOKUP(B45,Balance!F:G,2,FALSE)</f>
-        <v>3교</v>
-      </c>
-      <c r="D45" s="24">
-        <v>43</v>
-      </c>
-      <c r="E45" s="20">
-        <f>VLOOKUP(B45,Balance!F:K,6,FALSE)</f>
-        <v>1.7899999999999998</v>
-      </c>
-      <c r="F45" s="24">
-        <v>43</v>
-      </c>
-      <c r="G45" s="20">
-        <f>VLOOKUP(B45,Balance!F:L,7,FALSE)</f>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="26">
-        <v>44</v>
-      </c>
-      <c r="B46" s="21">
-        <f>Balance!F53</f>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="C46" s="20" t="str">
-        <f>VLOOKUP(B46,Balance!F:G,2,FALSE)</f>
-        <v>10교</v>
-      </c>
-      <c r="D46" s="24">
-        <v>43</v>
-      </c>
-      <c r="E46" s="20">
-        <f>VLOOKUP(B46,Balance!F:K,6,FALSE)</f>
-        <v>1.8139999999999998</v>
-      </c>
-      <c r="F46" s="24">
-        <v>43</v>
-      </c>
-      <c r="G46" s="20">
-        <f>VLOOKUP(B46,Balance!F:L,7,FALSE)</f>
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="26">
-        <v>45</v>
-      </c>
-      <c r="B47" s="21">
-        <f>Balance!F54</f>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="C47" s="20" t="str">
-        <f>VLOOKUP(B47,Balance!F:G,2,FALSE)</f>
-        <v>100교</v>
-      </c>
-      <c r="D47" s="24">
-        <v>43</v>
-      </c>
-      <c r="E47" s="20">
-        <f>VLOOKUP(B47,Balance!F:K,6,FALSE)</f>
-        <v>1.8379999999999999</v>
-      </c>
-      <c r="F47" s="24">
-        <v>43</v>
-      </c>
-      <c r="G47" s="20">
-        <f>VLOOKUP(B47,Balance!F:L,7,FALSE)</f>
-        <v>13.100000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="26">
-        <v>46</v>
-      </c>
-      <c r="B48" s="21">
-        <f>Balance!F55</f>
-        <v>6.2E+126</v>
-      </c>
-      <c r="C48" s="20" t="str">
-        <f>VLOOKUP(B48,Balance!F:G,2,FALSE)</f>
-        <v>620교</v>
-      </c>
-      <c r="D48" s="24">
-        <v>43</v>
-      </c>
-      <c r="E48" s="20">
-        <f>VLOOKUP(B48,Balance!F:K,6,FALSE)</f>
-        <v>1.8619999999999999</v>
-      </c>
-      <c r="F48" s="24">
-        <v>43</v>
-      </c>
-      <c r="G48" s="20">
-        <f>VLOOKUP(B48,Balance!F:L,7,FALSE)</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="26">
-        <v>47</v>
-      </c>
-      <c r="B49" s="21">
-        <f>Balance!F56</f>
-        <v>3.6999999999999998E+127</v>
-      </c>
-      <c r="C49" s="20" t="str">
-        <f>VLOOKUP(B49,Balance!F:G,2,FALSE)</f>
-        <v>3700교</v>
-      </c>
-      <c r="D49" s="24">
-        <v>43</v>
-      </c>
-      <c r="E49" s="20">
-        <f>VLOOKUP(B49,Balance!F:K,6,FALSE)</f>
-        <v>1.8869999999999998</v>
-      </c>
-      <c r="F49" s="24">
-        <v>43</v>
-      </c>
-      <c r="G49" s="20">
-        <f>VLOOKUP(B49,Balance!F:L,7,FALSE)</f>
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="26">
-        <v>48</v>
-      </c>
-      <c r="B50" s="21">
-        <f>Balance!F57</f>
-        <v>3.0000000000000002E+128</v>
-      </c>
-      <c r="C50" s="20" t="str">
-        <f>VLOOKUP(B50,Balance!F:G,2,FALSE)</f>
-        <v>3위</v>
-      </c>
-      <c r="D50" s="24">
-        <v>43</v>
-      </c>
-      <c r="E50" s="20">
-        <f>VLOOKUP(B50,Balance!F:K,6,FALSE)</f>
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="F50" s="24">
-        <v>43</v>
-      </c>
-      <c r="G50" s="20">
-        <f>VLOOKUP(B50,Balance!F:L,7,FALSE)</f>
-        <v>13.4</v>
       </c>
     </row>
   </sheetData>
